--- a/data/trans_bre/P59A-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P59A-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,17; 5,29</t>
+          <t>-13,65; 5,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 13,17</t>
+          <t>-11,44; 12,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 11,96</t>
+          <t>-4,25; 11,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 6,28</t>
+          <t>-11,15; 5,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-54,87; 34,91</t>
+          <t>-53,25; 30,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,33; 70,68</t>
+          <t>-41,13; 67,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-28,76; 120,64</t>
+          <t>-26,97; 115,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-37,3; 34,54</t>
+          <t>-39,34; 34,82</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 17,02</t>
+          <t>-2,01; 16,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 17,65</t>
+          <t>-4,72; 16,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,69; -5,48</t>
+          <t>-28,11; -6,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 15,24</t>
+          <t>-1,34; 14,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 146,57</t>
+          <t>-11,01; 147,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,65; 172,62</t>
+          <t>-22,5; 169,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-67,46; -19,85</t>
+          <t>-68,05; -22,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 157,16</t>
+          <t>-10,7; 141,39</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,78; -3,37</t>
+          <t>-24,64; -4,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 7,73</t>
+          <t>-12,73; 6,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 10,03</t>
+          <t>-12,49; 10,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,76; -1,21</t>
+          <t>-22,58; -2,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-91,67; -10,37</t>
+          <t>-92,52; -8,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-51,08; 42,15</t>
+          <t>-50,31; 36,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-59,55; 68,98</t>
+          <t>-55,16; 69,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-75,01; -3,08</t>
+          <t>-76,25; -5,3</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 0,81</t>
+          <t>-9,62; 0,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 10,61</t>
+          <t>-2,82; 9,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 1,98</t>
+          <t>-8,65; 2,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 4,28</t>
+          <t>-6,81; 4,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,11; 7,56</t>
+          <t>-51,19; 6,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,22; 67,55</t>
+          <t>-13,43; 62,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,75; 9,61</t>
+          <t>-33,05; 15,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,73; 27,23</t>
+          <t>-31,09; 25,28</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 7,25</t>
+          <t>-8,82; 6,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 5,47</t>
+          <t>-7,8; 5,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 4,11</t>
+          <t>-8,77; 3,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 1,01</t>
+          <t>-12,22; 1,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-45,84; 81,82</t>
+          <t>-47,2; 62,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-42,22; 50,94</t>
+          <t>-41,68; 44,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-38,85; 30,06</t>
+          <t>-41,02; 29,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-66,27; 7,1</t>
+          <t>-63,77; 15,98</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,46</t>
+          <t>1,27; 4,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,48; 6,24</t>
+          <t>2,47; 6,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 5,56</t>
+          <t>0,09; 5,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 6,48</t>
+          <t>-2,15; 6,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 448,81</t>
+          <t>-6,03; 442,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,13; 3830,08</t>
+          <t>-62,68; 4361,91</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,98; -0,72</t>
+          <t>-5,91; -0,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 1,53</t>
+          <t>-3,83; 1,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,12; -0,72</t>
+          <t>-5,99; -0,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,23; -0,31</t>
+          <t>-5,92; -0,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-39,55; -5,99</t>
+          <t>-39,78; -5,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-23,65; 11,79</t>
+          <t>-23,09; 12,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-31,89; -4,04</t>
+          <t>-31,4; -4,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-35,2; -2,63</t>
+          <t>-33,93; -2,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P59A-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P59A-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
